--- a/testcasesPA2.xlsx
+++ b/testcasesPA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab856d6445f97385/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1181B763-10C1-4A32-89C4-9753B7F4416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B553D2-EF31-4482-BD6E-738F5E7073AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9D94C13F-CFCC-4FC2-A948-0A325D8394EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9D94C13F-CFCC-4FC2-A948-0A325D8394EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>in: name</t>
   </si>
@@ -56,12 +56,6 @@
     <t>withdraw</t>
   </si>
   <si>
-    <t>Balance decreased by 50. Balance is -50 now.</t>
-  </si>
-  <si>
-    <t>Balance increased by 100. Balanc: 100</t>
-  </si>
-  <si>
     <t>ahb</t>
   </si>
   <si>
@@ -80,10 +74,74 @@
     <t>Dontavious Kingston</t>
   </si>
   <si>
-    <t>Jamalion Trevion Nogson</t>
-  </si>
-  <si>
     <t>Tyrellion Fandingo Johnson Figgleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in: </t>
+  </si>
+  <si>
+    <t>get stats</t>
+  </si>
+  <si>
+    <t>Current Balance: 100.0
+Last 5 Transactions:
+Minimum Transaction: 100.0
+Maximum Transaction: 100.0
+Average Transaction: 100.0
+Enter your first and last name or 'E' to exit the program.</t>
+  </si>
+  <si>
+    <t>view recent transactions</t>
+  </si>
+  <si>
+    <t>Successfully deposited 100.0. Your new balance is 100.0</t>
+  </si>
+  <si>
+    <t>Balance withdrawed 50. Balance is 50 now.</t>
+  </si>
+  <si>
+    <t>Recent transactions:
+Type: Deposit, Amount: 100.0
+Type: Withdraw, Amount: 50.0
+Enter your first and last name or 'E' to exit the program.</t>
+  </si>
+  <si>
+    <t>in: account number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> what is your account number</t>
+  </si>
+  <si>
+    <t>Your account wasnt found. We will create an account for you.
+Your new account number is 10767
+Welcome, Tyrellion Fandingo Johnson Figgleton. You are the owner.
+Please enter 'D' to deposit, 'W' to withdraw, 'S' to getStats, 'T' to view transactions, or 'E' to exit</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>in: choice</t>
+  </si>
+  <si>
+    <t>Successfully deposited 100.0. Your new balance is 200.0
+Enter your first and last name or 'E' to exit the program.</t>
+  </si>
+  <si>
+    <t>k o</t>
+  </si>
+  <si>
+    <t>Hello K O, What is your account number?</t>
+  </si>
+  <si>
+    <t>in:</t>
+  </si>
+  <si>
+    <t>This isnt your account...You are now being tracked by the FBI for fraud.
+Enter your first and last name or 'E' to exit the program.</t>
   </si>
 </sst>
 </file>
@@ -132,12 +190,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -457,22 +521,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F17241-FD63-4028-AF94-3980E0D0FCCE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,10 +553,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -497,12 +568,12 @@
         <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -511,39 +582,131 @@
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>506</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>10767</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,15 +903,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE7D41A0-CC3D-4EF8-AF0D-4803377514E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fe3d50be-53c9-47c8-83a2-30df3333d03d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe3d50be-53c9-47c8-83a2-30df3333d03d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
